--- a/ProjectNinzaCRM/src/test/resources/TestNinzaCrm.xlsx
+++ b/ProjectNinzaCRM/src/test/resources/TestNinzaCrm.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -145,13 +144,25 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Electricals</t>
+  </si>
+  <si>
+    <t>VID_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +182,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,10 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,15 +627,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -630,8 +651,14 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,8 +671,14 @@
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
